--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.003292333333334</v>
+        <v>1.169212666666667</v>
       </c>
       <c r="H2">
-        <v>18.009877</v>
+        <v>3.507638</v>
       </c>
       <c r="I2">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="J2">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N2">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q2">
-        <v>1.658779710110556</v>
+        <v>0.1656704195906666</v>
       </c>
       <c r="R2">
-        <v>14.929017390995</v>
+        <v>1.491033776316</v>
       </c>
       <c r="S2">
-        <v>5.475382253677321E-05</v>
+        <v>9.160541208822002E-06</v>
       </c>
       <c r="T2">
-        <v>5.47538225367732E-05</v>
+        <v>9.160541208822001E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.003292333333334</v>
+        <v>1.169212666666667</v>
       </c>
       <c r="H3">
-        <v>18.009877</v>
+        <v>3.507638</v>
       </c>
       <c r="I3">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="J3">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.542395</v>
       </c>
       <c r="O3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q3">
-        <v>13.09196991504611</v>
+        <v>2.549817034778889</v>
       </c>
       <c r="R3">
-        <v>117.827729235415</v>
+        <v>22.94835331301</v>
       </c>
       <c r="S3">
-        <v>0.0004321462295541536</v>
+        <v>0.0001409889833064939</v>
       </c>
       <c r="T3">
-        <v>0.0004321462295541535</v>
+        <v>0.0001409889833064938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.003292333333334</v>
+        <v>1.169212666666667</v>
       </c>
       <c r="H4">
-        <v>18.009877</v>
+        <v>3.507638</v>
       </c>
       <c r="I4">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="J4">
-        <v>0.002628468435338583</v>
+        <v>0.0005193657195729173</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N4">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q4">
-        <v>64.87930919452535</v>
+        <v>6.677356780618444</v>
       </c>
       <c r="R4">
-        <v>583.913782750728</v>
+        <v>60.09621102556601</v>
       </c>
       <c r="S4">
-        <v>0.002141568383247656</v>
+        <v>0.0003692161950576016</v>
       </c>
       <c r="T4">
-        <v>0.002141568383247656</v>
+        <v>0.0003692161950576015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6509.435058</v>
       </c>
       <c r="I5">
-        <v>0.9500256210433516</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="J5">
-        <v>0.9500256210433515</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N5">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q5">
-        <v>599.5442833114701</v>
+        <v>307.449297036084</v>
       </c>
       <c r="R5">
-        <v>5395.89854980323</v>
+        <v>2767.043673324756</v>
       </c>
       <c r="S5">
-        <v>0.01979005475608645</v>
+        <v>0.01700002910646984</v>
       </c>
       <c r="T5">
-        <v>0.01979005475608644</v>
+        <v>0.01700002910646983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6509.435058</v>
       </c>
       <c r="I6">
-        <v>0.9500256210433516</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="J6">
-        <v>0.9500256210433515</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.542395</v>
       </c>
       <c r="O6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q6">
         <v>4731.921708475989</v>
@@ -818,10 +818,10 @@
         <v>42587.29537628391</v>
       </c>
       <c r="S6">
-        <v>0.1561936162497014</v>
+        <v>0.2616457658193542</v>
       </c>
       <c r="T6">
-        <v>0.1561936162497013</v>
+        <v>0.2616457658193541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6509.435058</v>
       </c>
       <c r="I7">
-        <v>0.9500256210433516</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="J7">
-        <v>0.9500256210433515</v>
+        <v>0.9638330474556795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N7">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q7">
-        <v>23449.77979636757</v>
+        <v>12391.76343811184</v>
       </c>
       <c r="R7">
-        <v>211048.0181673081</v>
+        <v>111525.8709430065</v>
       </c>
       <c r="S7">
-        <v>0.7740419500375638</v>
+        <v>0.6851872525298557</v>
       </c>
       <c r="T7">
-        <v>0.7740419500375637</v>
+        <v>0.6851872525298556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>108.1357256666667</v>
+        <v>80.250984</v>
       </c>
       <c r="H8">
-        <v>324.407177</v>
+        <v>240.752952</v>
       </c>
       <c r="I8">
-        <v>0.04734591052130986</v>
+        <v>0.03564758682474761</v>
       </c>
       <c r="J8">
-        <v>0.04734591052130985</v>
+        <v>0.0356475868247476</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N8">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q8">
-        <v>29.87916258516611</v>
+        <v>11.371082926896</v>
       </c>
       <c r="R8">
-        <v>268.912463266495</v>
+        <v>102.339746342064</v>
       </c>
       <c r="S8">
-        <v>0.000986266202657218</v>
+        <v>0.0006287499844458139</v>
       </c>
       <c r="T8">
-        <v>0.0009862662026572178</v>
+        <v>0.0006287499844458136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>108.1357256666667</v>
+        <v>80.250984</v>
       </c>
       <c r="H9">
-        <v>324.407177</v>
+        <v>240.752952</v>
       </c>
       <c r="I9">
-        <v>0.04734591052130986</v>
+        <v>0.03564758682474761</v>
       </c>
       <c r="J9">
-        <v>0.04734591052130985</v>
+        <v>0.0356475868247476</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.542395</v>
       </c>
       <c r="O9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q9">
-        <v>235.8222103076572</v>
+        <v>175.01121215556</v>
       </c>
       <c r="R9">
-        <v>2122.399892768915</v>
+        <v>1575.10090940004</v>
       </c>
       <c r="S9">
-        <v>0.007784136359224269</v>
+        <v>0.009677028795593252</v>
       </c>
       <c r="T9">
-        <v>0.007784136359224267</v>
+        <v>0.009677028795593247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>108.1357256666667</v>
+        <v>80.250984</v>
       </c>
       <c r="H10">
-        <v>324.407177</v>
+        <v>240.752952</v>
       </c>
       <c r="I10">
-        <v>0.04734591052130986</v>
+        <v>0.03564758682474761</v>
       </c>
       <c r="J10">
-        <v>0.04734591052130985</v>
+        <v>0.0356475868247476</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N10">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q10">
-        <v>1168.653930368659</v>
+        <v>458.312219359896</v>
       </c>
       <c r="R10">
-        <v>10517.88537331793</v>
+        <v>4124.809974239064</v>
       </c>
       <c r="S10">
-        <v>0.03857550795942837</v>
+        <v>0.02534180804470855</v>
       </c>
       <c r="T10">
-        <v>0.03857550795942837</v>
+        <v>0.02534180804470854</v>
       </c>
     </row>
   </sheetData>
